--- a/i_codebooks/D3_episodes_of_treatment.xlsx
+++ b/i_codebooks/D3_episodes_of_treatment.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="62">
   <si>
     <t>medatata_name</t>
   </si>
@@ -182,13 +182,55 @@
   </si>
   <si>
     <t>P05</t>
+  </si>
+  <si>
+    <t>D3_clean_spells</t>
+  </si>
+  <si>
+    <t>birth_date</t>
+  </si>
+  <si>
+    <t>death_date</t>
+  </si>
+  <si>
+    <t>entry_spell_category</t>
+  </si>
+  <si>
+    <t>exit_spell_category</t>
+  </si>
+  <si>
+    <t>op_meaning</t>
+  </si>
+  <si>
+    <t>num_spell</t>
+  </si>
+  <si>
+    <t>op_start_date_cleaned</t>
+  </si>
+  <si>
+    <t>op_end_date_cleaned</t>
+  </si>
+  <si>
+    <t>starts_at_birth</t>
+  </si>
+  <si>
+    <t>starts_after_ending</t>
+  </si>
+  <si>
+    <t>no_overlap_study_period</t>
+  </si>
+  <si>
+    <t>less_than_365_days_and_not_starts_at_birth</t>
+  </si>
+  <si>
+    <t>is_the_study_spell</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,6 +280,16 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -277,7 +329,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -399,11 +451,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -458,15 +523,28 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1026,10 +1104,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:W19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1038,17 +1116,33 @@
     <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="J1" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+    </row>
+    <row r="2" spans="1:23" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
         <v>24</v>
       </c>
@@ -1067,8 +1161,50 @@
       <c r="F2" s="20" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J2" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="N2" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q2" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="R2" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="S2" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="T2" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="U2" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="V2" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="W2" s="29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
         <v>42</v>
       </c>
@@ -1083,8 +1219,32 @@
       <c r="F3" s="21">
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J3" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21">
+        <v>-3000</v>
+      </c>
+      <c r="N3" s="21">
+        <v>-1000</v>
+      </c>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
         <v>42</v>
       </c>
@@ -1099,8 +1259,32 @@
       <c r="F4" s="21">
         <v>70</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J4" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21">
+        <v>-500</v>
+      </c>
+      <c r="N4" s="21">
+        <v>500</v>
+      </c>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>43</v>
       </c>
@@ -1115,8 +1299,30 @@
       <c r="F5" s="20">
         <v>50</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J5" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20">
+        <v>-500</v>
+      </c>
+      <c r="N5" s="20">
+        <v>500</v>
+      </c>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="20"/>
+      <c r="W5" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
         <v>44</v>
       </c>
@@ -1131,8 +1337,30 @@
       <c r="F6" s="21">
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J6" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21">
+        <v>-500</v>
+      </c>
+      <c r="N6" s="21">
+        <v>500</v>
+      </c>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="21"/>
+      <c r="W6" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
         <v>44</v>
       </c>
@@ -1147,8 +1375,30 @@
       <c r="F7" s="21">
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J7" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20">
+        <v>-500</v>
+      </c>
+      <c r="N7" s="20">
+        <v>500</v>
+      </c>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="20"/>
+      <c r="W7" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="21" t="s">
         <v>44</v>
       </c>
@@ -1161,8 +1411,30 @@
         <v>3</v>
       </c>
       <c r="F8" s="21"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J8" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21">
+        <v>-500</v>
+      </c>
+      <c r="N8" s="21">
+        <v>75</v>
+      </c>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="21"/>
+      <c r="W8" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
         <v>46</v>
       </c>
@@ -1178,7 +1450,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
         <v>46</v>
       </c>
@@ -1194,7 +1466,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
         <v>46</v>
       </c>
@@ -1210,7 +1482,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="21" t="s">
         <v>47</v>
       </c>
@@ -1226,88 +1498,89 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="23" t="s">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A14" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="24" t="s">
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A15" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="23" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="26" t="s">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A16" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="26">
+      <c r="B16" s="24">
         <v>-149</v>
       </c>
-      <c r="C16" s="26">
-        <v>1</v>
-      </c>
-      <c r="D16" s="26">
+      <c r="C16" s="24">
+        <v>1</v>
+      </c>
+      <c r="D16" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="25">
-        <v>1</v>
-      </c>
-      <c r="C17" s="25">
+      <c r="B17" s="23">
+        <v>1</v>
+      </c>
+      <c r="C17" s="23">
         <v>179</v>
       </c>
-      <c r="D17" s="25">
+      <c r="D17" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="26">
-        <v>1</v>
-      </c>
-      <c r="C18" s="26">
+      <c r="B18" s="24">
+        <v>1</v>
+      </c>
+      <c r="C18" s="24">
         <v>260</v>
       </c>
-      <c r="D18" s="26">
+      <c r="D18" s="24">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="25">
-        <v>1</v>
-      </c>
-      <c r="C19" s="25">
-        <v>80</v>
-      </c>
-      <c r="D19" s="25">
+      <c r="B19" s="23">
+        <v>1</v>
+      </c>
+      <c r="C19" s="23">
+        <v>75</v>
+      </c>
+      <c r="D19" s="23">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A14:D14"/>
+    <mergeCell ref="J1:W1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1315,27 +1588,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Comments xmlns="8029070a-695f-410c-a424-24d0683063af" xsi:nil="true"/>
-    <TaxCatchAll xmlns="797b3a1e-a17b-4ca2-8e72-b47fcb862c81" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8029070a-695f-410c-a424-24d0683063af">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100051A4D12AC31714A976EFB59A015589D" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6dac44d48b4406d5c320fe911a853389">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8029070a-695f-410c-a424-24d0683063af" xmlns:ns3="797b3a1e-a17b-4ca2-8e72-b47fcb862c81" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="183e839aabd2ef2c305af4a754f6d8de" ns2:_="" ns3:_="">
     <xsd:import namespace="8029070a-695f-410c-a424-24d0683063af"/>
@@ -1580,10 +1832,42 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Comments xmlns="8029070a-695f-410c-a424-24d0683063af" xsi:nil="true"/>
+    <TaxCatchAll xmlns="797b3a1e-a17b-4ca2-8e72-b47fcb862c81" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8029070a-695f-410c-a424-24d0683063af">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E3594D7-89C9-4FB7-87F1-388B97141296}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B7FC829-F037-49D5-9D9F-9F4592863FCD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8029070a-695f-410c-a424-24d0683063af"/>
+    <ds:schemaRef ds:uri="797b3a1e-a17b-4ca2-8e72-b47fcb862c81"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1606,20 +1890,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B7FC829-F037-49D5-9D9F-9F4592863FCD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E3594D7-89C9-4FB7-87F1-388B97141296}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8029070a-695f-410c-a424-24d0683063af"/>
-    <ds:schemaRef ds:uri="797b3a1e-a17b-4ca2-8e72-b47fcb862c81"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>